--- a/Market_Research_Report.xlsx
+++ b/Market_Research_Report.xlsx
@@ -448,120 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This paper thoroughly examines Tesla's problems and provides the market strategy that can make Tesla more powerful in the EV market in the future.</t>
+          <t>Our business case study explores Amazon's revenue model and culture of customer metrics, history of Amazon.com and marketing objectives.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/383844218_Tesla_Market_Strategy_Analysis_in_the_Future</t>
+          <t>https://www.smartinsights.com/digital-marketing-strategy/online-business-revenue-models/amazon-case-study/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wondering how Tesla markets its cars? Here is a case study that covers Target Market, Marketing Mix, and Digital Campaigns.</t>
+          <t>Our Amazon case study explores 13 strategies, processes &amp; principles that kept the trailblazing online marketplace at the leading edge of ...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://iide.co/case-studies/tesla-marketing-strategy/</t>
+          <t>https://www.cobbleweb.co.uk/amazon-online-marketplace-case-study/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tesla's marketing vision is centered around product innovation, a unique sales model, strategic use of public relations and social media, and a strong emphasis ...</t>
+          <t>This comprehensive case study delves into the various aspects of Amazon's marketing strategy and explores the key factors that have made it the brand and multi ...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.chegg.com/homework-help/questions-and-answers/discussion-focus-tesla-major-american-automobile-company-renowned-unique-marketing-strateg-q130968669</t>
+          <t>https://www.brandcredential.com/post/a-comprehensive-case-study-on-amazon-s-marketing-strategy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conduct a detailed market analysis of tesla company. Focus on the 7 Ps of marketing, main customers, competitors, market positioning, and digital presence.</t>
+          <t>This Amazon marketing strategy analysis explains how the online bookseller transformed into the largest online retailer in the world.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.studocu.com/en-us/messages/question/10092913/conduct-a-detailed-market-analysis-of-tesla-company-focus-on-the-7-ps-of-marketing-main-customers</t>
+          <t>https://marcom.com/bookstores-to-billions-a-case-study-analysis-of-amazons-marketing-strategy/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>This case study provides analysis of the strategic marketing plan of electric vehicle manufacturer, Tesla Motors.</t>
+          <t>Through this lens, we analyze how e-commerce companies position themselves in the market and examine the implications for customer satisfaction and engagement.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/254322834_The_globalization_of_Tesla_Motors_A_strategic_marketing_plan_analysis</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S2199853124000167</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>This comprehensive analysis delves into Tesla's disruptive marketing strategies, examining how the company has transformed the automotive landscape and ...</t>
+          <t>This article explores the most successful Internet business model with specific reference to Amazon e-business model.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://akshatsinghbisht.com/how-tesla-transformed-ev-automotive-industry-using-disruptive-marketing/?srsltid=AfmBOooC6mWIuaVUqjqmmLBb3V6CKukDYeRJ1KaqCutP1TRwl5raCaw8</t>
+          <t>https://ivypanda.com/essays/amazon-e-business-model/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tesla is an American business established in Palo Alto, California, offering electric vehicles and clean electric power solutions.</t>
+          <t>Amazon has grown exponentially since it was founded in 1994 to become a leading online retainer mainly due to its effective business strategy.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.simplilearn.com/tutorials/marketing-case-studies-tutorial/tesla-marketing-strategy</t>
+          <t>https://www.cascade.app/studies/amazon-strategy-study</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tesla's marketing strategy is centered around creating a distinctive brand image and establishing itself as a leader in the sustainable transportation industry.</t>
+          <t>Amazon's marketing strategy aims to create a seamless shopping experience, increase customer loyalty, and expand its market share.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.brandcredential.com/post/tesla-marketing-strategy-the-road-to-auto-industry-success</t>
+          <t>https://businessmodelanalyst.com/amazon-marketing-strategy/?srsltid=AfmBOopBByngVMP51GOS_eEkJe7sceci5W_oSYbu4XTSjhHM50FJx2xI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>In this article, we will cover key strategies for effective market research, the latest trends driving the automotive sector, and practical tips ...</t>
+          <t>In this section, we'll cover the key aspects of the Amazon marketplace, including its market size and growth, competitor analysis, and customer demographics.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://prelaunch.com/blog/automotive-market-research</t>
+          <t>https://scaleinsights.com/learn/amazon-market-research</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tesla has used this strategy by focusing on the luxury electric vehicle market. This has enabled Tesla to create high-end products that ...</t>
+          <t>This article brings together the collective insight from several leading experts on issues relating to digital and social media marketing.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cliffsnotes.com/tutors-problems/Management/47471803-recommendations-and-evaluation-of-tesla-SWOT-Analysis-/</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0268401220308082</t>
         </is>
       </c>
     </row>
